--- a/biology/Botanique/Goniochloridaceae/Goniochloridaceae.xlsx
+++ b/biology/Botanique/Goniochloridaceae/Goniochloridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Goniochloridaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Eustigmatophyceae et de l’ordre des Goniochloridales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Goniochloris, de gonio, angle et chlor, « en rapport avec la couleur verte », en référence à la forme angulaire et à la couleur vert clair de cet organisme.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,15 +584,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (20 février 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (20 février 2022) :
 Goniochloris (en) Geitler, 1928 - genre type
 Pseudostaurastrum Chodat, 1921
 Tetraëdriella Pascher, 1930 nom. cons.
 Trachydiscus H.Ettl, 1964
 Vacuoliviride T.Nakayama et al., 2015
-World Register of Marine Species                               (20 février 2022)[2] répartit dans trois familles les genres reconnus par AlgaeBAse :
+World Register of Marine Species                               (20 février 2022) répartit dans trois familles les genres reconnus par AlgaeBAse :
 Eustigmataceae : genres Pseudostaurastrum et Tetraëdriella ;
 Goniochloridaceae : le seul genre Vacuoliviride ;
 Pleurochloridaceae (classe des Xanthophyceae) : genres Goniochloris et Trachydiscus.</t>
